--- a/Kriging/Article/Kriging-data.xlsx
+++ b/Kriging/Article/Kriging-data.xlsx
@@ -4,18 +4,19 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Training"/>
     <sheet r:id="rId2" sheetId="2" name="Test"/>
+    <sheet r:id="rId3" sheetId="3" name="Tudo"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="3">
   <si>
     <t>x1</t>
   </si>
@@ -25,66 +26,6 @@
   <si>
     <t>f(x1,x2)</t>
   </si>
-  <si>
-    <t xml:space="preserve">0,8492            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,7384            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,4299            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,2072            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,3234            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,3752            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,8171            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,5317            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,7743            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,3346            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,5746            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,8639            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,1986            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,6725            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,9018            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,4965            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,4128            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,2343            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,7750            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,9122            </t>
-  </si>
 </sst>
 </file>
 
@@ -93,7 +34,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,26 +45,32 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Cambria"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Consolas"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
       <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Cambria"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -135,19 +82,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Cambria"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Cambria"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -160,7 +94,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -191,6 +125,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color rgb="FFdee2e6"/>
       </left>
@@ -209,9 +156,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
@@ -220,53 +167,59 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -576,543 +529,543 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="17" width="18.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="18" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="18" width="10.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="9" width="18.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="19" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="19" width="10.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="21" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="10">
-      <c r="A1" s="11" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25" customFormat="1" s="13">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="14">
+      <c r="D1" s="15"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
+      <c r="A2" s="4">
         <v>0.4522</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="5">
         <v>0.3192</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="5">
         <v>0.7824</v>
       </c>
       <c r="D2" s="3"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="12"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="14">
+      <c r="E2" s="16"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="15"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
+      <c r="A3" s="4">
         <v>0.3904</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="5">
         <v>0.2042</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="5">
         <v>1.4808</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="12"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="14">
+      <c r="E3" s="16"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="15"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
+      <c r="A4" s="4">
         <v>0.9764</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="5">
         <v>0.07</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="5">
         <v>2.7607</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="12"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="14">
+      <c r="E4" s="16"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="15"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
+      <c r="A5" s="4">
         <v>0.5233</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="5">
         <v>0.95</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="5">
         <v>1.1487</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="12"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="14">
+      <c r="E5" s="16"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="15"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
+      <c r="A6" s="4">
         <v>0.1109</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="5">
         <v>0.1412</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="5">
         <v>2.4417</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="12"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="14">
+      <c r="E6" s="16"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="15"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
+      <c r="A7" s="4">
         <v>0.3299</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="5">
         <v>0.7213</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="5">
         <v>2.5728</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="12"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="14">
+      <c r="E7" s="16"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="15"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
+      <c r="A8" s="4">
         <v>0.3421</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="5">
         <v>0.9288</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="5">
         <v>1.8034</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="12"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="14">
+      <c r="E8" s="16"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="15"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
+      <c r="A9" s="4">
         <v>0.5211</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="5">
         <v>0.4073</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="5">
         <v>1.1039</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="12"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="14">
+      <c r="E9" s="16"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="15"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
+      <c r="A10" s="4">
         <v>0.1203</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="5">
         <v>0.5209</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="5">
         <v>3.2106</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="12"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="14">
+      <c r="E10" s="16"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="15"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
+      <c r="A11" s="4">
         <v>0.6255</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="5">
         <v>0.2191</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="5">
         <v>0.5796</v>
       </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="12"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="14">
+      <c r="E11" s="16"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="15"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
+      <c r="A12" s="4">
         <v>0.3466</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="5">
         <v>0.8424</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="5">
         <v>1.8635000000000002</v>
       </c>
       <c r="D12" s="3"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="12"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="14">
+      <c r="E12" s="16"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="15"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
+      <c r="A13" s="4">
         <v>0.1992</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="5">
         <v>0.9869</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="5">
         <v>2.5832</v>
       </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="12"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="14">
+      <c r="E13" s="16"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="15"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="20.25">
+      <c r="A14" s="4">
         <v>0.2983</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="5">
         <v>0.7699</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="5">
         <v>2.4064</v>
       </c>
       <c r="D14" s="3"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="12"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="14">
+      <c r="E14" s="16"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="15"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="20.25">
+      <c r="A15" s="4">
         <v>0.8899</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="5">
         <v>0.7061</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="5">
         <v>2.621</v>
       </c>
       <c r="D15" s="3"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="12"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="14">
+      <c r="E15" s="16"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="15"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25">
+      <c r="A16" s="4">
         <v>0.5014</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="5">
         <v>0.5953</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="5">
         <v>2.3293</v>
       </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="12"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="14">
+      <c r="E16" s="16"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="15"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25">
+      <c r="A17" s="4">
         <v>0.277</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="5">
         <v>0.7529</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="5">
         <v>2.5766999999999998</v>
       </c>
       <c r="D17" s="3"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="12"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="14">
+      <c r="E17" s="16"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="15"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="20.25">
+      <c r="A18" s="4">
         <v>0.534</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="5">
         <v>0.4967</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="5">
         <v>1.8732</v>
       </c>
       <c r="D18" s="3"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="12"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="14">
+      <c r="E18" s="16"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="15"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="20.25">
+      <c r="A19" s="4">
         <v>0.5743</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="5">
         <v>0.8651</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="5">
         <v>0.9187</v>
       </c>
       <c r="D19" s="3"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="12"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="14">
+      <c r="E19" s="16"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="15"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="20.25">
+      <c r="A20" s="4">
         <v>0.0148</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="5">
         <v>0.9685</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="5">
         <v>2.2113</v>
       </c>
       <c r="D20" s="3"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="12"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="14">
+      <c r="A21" s="4">
         <v>0.7028</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B21" s="5">
         <v>0.0988</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="5">
         <v>1.0467</v>
       </c>
       <c r="D21" s="3"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="12"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="14">
+      <c r="A22" s="4">
         <v>0.5067</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B22" s="5">
         <v>0.547</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="5">
         <v>2.2373000000000003</v>
       </c>
       <c r="D22" s="3"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="14">
+      <c r="A23" s="4">
         <v>0.3813</v>
       </c>
-      <c r="B23" s="15">
+      <c r="B23" s="5">
         <v>0.403</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="5">
         <v>1.6296</v>
       </c>
       <c r="D23" s="3"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="14">
+      <c r="A24" s="4">
         <v>0.0649</v>
       </c>
-      <c r="B24" s="15">
+      <c r="B24" s="5">
         <v>0.107</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="5">
         <v>2.3883</v>
       </c>
       <c r="D24" s="3"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="14">
+      <c r="A25" s="4">
         <v>0.3586</v>
       </c>
-      <c r="B25" s="15">
+      <c r="B25" s="5">
         <v>0.7242</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="5">
         <v>2.4399</v>
       </c>
       <c r="D25" s="3"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="14">
+      <c r="A26" s="4">
         <v>0.2035</v>
       </c>
-      <c r="B26" s="15">
+      <c r="B26" s="5">
         <v>0.783</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="5">
         <v>2.5703</v>
       </c>
       <c r="D26" s="3"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="14">
+      <c r="A27" s="4">
         <v>0.8138</v>
       </c>
-      <c r="B27" s="15">
+      <c r="B27" s="5">
         <v>0.5666</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="5">
         <v>2.3635</v>
       </c>
       <c r="D27" s="3"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="14">
+      <c r="A28" s="4">
         <v>0.3934</v>
       </c>
-      <c r="B28" s="15">
+      <c r="B28" s="5">
         <v>0.8113</v>
       </c>
-      <c r="C28" s="15">
+      <c r="C28" s="5">
         <v>1.8007000000000002</v>
       </c>
       <c r="D28" s="3"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="14">
+      <c r="A29" s="4">
         <v>0.0536</v>
       </c>
-      <c r="B29" s="15">
+      <c r="B29" s="5">
         <v>0.5768</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C29" s="5">
         <v>3.2735999999999996</v>
       </c>
       <c r="D29" s="3"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="14">
+      <c r="A30" s="4">
         <v>0.3751</v>
       </c>
-      <c r="B30" s="15">
+      <c r="B30" s="5">
         <v>0.944</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="5">
         <v>1.7206</v>
       </c>
       <c r="D30" s="3"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="14">
+      <c r="A31" s="4">
         <v>0.1653</v>
       </c>
-      <c r="B31" s="15">
+      <c r="B31" s="5">
         <v>0.5076</v>
       </c>
-      <c r="C31" s="15">
+      <c r="C31" s="5">
         <v>3.154</v>
       </c>
       <c r="D31" s="3"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1126,16 +1079,16 @@
   </sheetPr>
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="13.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="20.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="16.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="9" width="13.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="20.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="16.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
@@ -1153,8 +1106,8 @@
       <c r="F1" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="4" t="s">
-        <v>3</v>
+      <c r="A2" s="4">
+        <v>0.8492</v>
       </c>
       <c r="B2" s="2">
         <v>0.3298</v>
@@ -1167,8 +1120,8 @@
       <c r="F2" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
+      <c r="A3" s="4">
+        <v>0.7384</v>
       </c>
       <c r="B3" s="2">
         <v>0.7672</v>
@@ -1181,8 +1134,8 @@
       <c r="F3" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="4" t="s">
-        <v>5</v>
+      <c r="A4" s="4">
+        <v>0.4299</v>
       </c>
       <c r="B4" s="2">
         <v>0.1582</v>
@@ -1195,8 +1148,8 @@
       <c r="F4" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="4" t="s">
-        <v>6</v>
+      <c r="A5" s="4">
+        <v>0.2072</v>
       </c>
       <c r="B5" s="2">
         <v>0.2864</v>
@@ -1206,11 +1159,11 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="5"/>
+      <c r="F5" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="4" t="s">
-        <v>7</v>
+      <c r="A6" s="4">
+        <v>0.3234</v>
       </c>
       <c r="B6" s="2">
         <v>0.6871</v>
@@ -1223,8 +1176,8 @@
       <c r="F6" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="4" t="s">
-        <v>8</v>
+      <c r="A7" s="4">
+        <v>0.3752</v>
       </c>
       <c r="B7" s="2">
         <v>0.5121</v>
@@ -1237,8 +1190,8 @@
       <c r="F7" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="4" t="s">
-        <v>9</v>
+      <c r="A8" s="4">
+        <v>0.8171</v>
       </c>
       <c r="B8" s="2">
         <v>0.7321</v>
@@ -1247,12 +1200,12 @@
         <v>1.8783</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="5"/>
+      <c r="E8" s="6"/>
       <c r="F8" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="4" t="s">
-        <v>10</v>
+      <c r="A9" s="4">
+        <v>0.5317</v>
       </c>
       <c r="B9" s="2">
         <v>0.7498</v>
@@ -1265,8 +1218,8 @@
       <c r="F9" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="4" t="s">
-        <v>11</v>
+      <c r="A10" s="4">
+        <v>0.7743</v>
       </c>
       <c r="B10" s="2">
         <v>0.2395</v>
@@ -1279,8 +1232,8 @@
       <c r="F10" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="4" t="s">
-        <v>12</v>
+      <c r="A11" s="4">
+        <v>0.3346</v>
       </c>
       <c r="B11" s="2">
         <v>0.6629</v>
@@ -1293,8 +1246,8 @@
       <c r="F11" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="4" t="s">
-        <v>13</v>
+      <c r="A12" s="4">
+        <v>0.5746</v>
       </c>
       <c r="B12" s="2">
         <v>0.8162</v>
@@ -1307,8 +1260,8 @@
       <c r="F12" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="4" t="s">
-        <v>14</v>
+      <c r="A13" s="4">
+        <v>0.8639</v>
       </c>
       <c r="B13" s="2">
         <v>0.7939</v>
@@ -1321,8 +1274,8 @@
       <c r="F13" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="4" t="s">
-        <v>15</v>
+      <c r="A14" s="4">
+        <v>0.1986</v>
       </c>
       <c r="B14" s="2">
         <v>0.4691</v>
@@ -1335,8 +1288,8 @@
       <c r="F14" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="4" t="s">
-        <v>16</v>
+      <c r="A15" s="4">
+        <v>0.6725</v>
       </c>
       <c r="B15" s="2">
         <v>0.3095</v>
@@ -1349,8 +1302,8 @@
       <c r="F15" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="4" t="s">
-        <v>17</v>
+      <c r="A16" s="4">
+        <v>0.9018</v>
       </c>
       <c r="B16" s="2">
         <v>0.6876</v>
@@ -1363,8 +1316,8 @@
       <c r="F16" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="4" t="s">
-        <v>18</v>
+      <c r="A17" s="4">
+        <v>0.4965</v>
       </c>
       <c r="B17" s="2">
         <v>0.8296</v>
@@ -1377,8 +1330,8 @@
       <c r="F17" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="4" t="s">
-        <v>19</v>
+      <c r="A18" s="4">
+        <v>0.4128</v>
       </c>
       <c r="B18" s="2">
         <v>0.068</v>
@@ -1391,8 +1344,8 @@
       <c r="F18" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="4" t="s">
-        <v>20</v>
+      <c r="A19" s="4">
+        <v>0.2343</v>
       </c>
       <c r="B19" s="2">
         <v>0.6137</v>
@@ -1405,8 +1358,8 @@
       <c r="F19" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="4" t="s">
-        <v>21</v>
+      <c r="A20" s="4">
+        <v>0.775</v>
       </c>
       <c r="B20" s="2">
         <v>0.8715</v>
@@ -1419,8 +1372,8 @@
       <c r="F20" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="4" t="s">
-        <v>22</v>
+      <c r="A21" s="4">
+        <v>0.9122</v>
       </c>
       <c r="B21" s="2">
         <v>0.7888</v>
@@ -1433,12 +1386,798 @@
       <c r="F21" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:F57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" tabSelected="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="9" width="13.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="20.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="16.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="4">
+        <v>0.4522</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0.3192</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.7824</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="4">
+        <v>0.3904</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.2042</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1.4808</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="4">
+        <v>0.9764</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.07</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2.7607</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="4">
+        <v>0.5233</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1.1487</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="4">
+        <v>0.1109</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.1412</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2.4417</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="4">
+        <v>0.3299</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.7213</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2.5728</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="4">
+        <v>0.3421</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0.9288</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1.8034</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="4">
+        <v>0.5211</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0.4073</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1.1039</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="4">
+        <v>0.1203</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0.5209</v>
+      </c>
+      <c r="C10" s="5">
+        <v>3.2106</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="4">
+        <v>0.6255</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0.2191</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.5796</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="4">
+        <v>0.3466</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0.8424</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1.8635000000000002</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="4">
+        <v>0.1992</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0.9869</v>
+      </c>
+      <c r="C13" s="5">
+        <v>2.5832</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="A14" s="4">
+        <v>0.2983</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0.7699</v>
+      </c>
+      <c r="C14" s="5">
+        <v>2.4064</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="A15" s="4">
+        <v>0.8899</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0.7061</v>
+      </c>
+      <c r="C15" s="5">
+        <v>2.621</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+      <c r="A16" s="4">
+        <v>0.5014</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0.5953</v>
+      </c>
+      <c r="C16" s="5">
+        <v>2.3293</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="A17" s="4">
+        <v>0.277</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0.7529</v>
+      </c>
+      <c r="C17" s="5">
+        <v>2.5766999999999998</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+      <c r="A18" s="4">
+        <v>0.534</v>
+      </c>
+      <c r="B18" s="5">
+        <v>0.4967</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1.8732</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+      <c r="A19" s="4">
+        <v>0.5743</v>
+      </c>
+      <c r="B19" s="5">
+        <v>0.8651</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.9187</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="4">
+        <v>0.0148</v>
+      </c>
+      <c r="B20" s="5">
+        <v>0.9685</v>
+      </c>
+      <c r="C20" s="5">
+        <v>2.2113</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="4">
+        <v>0.7028</v>
+      </c>
+      <c r="B21" s="5">
+        <v>0.0988</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1.0467</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="4">
+        <v>0.5067</v>
+      </c>
+      <c r="B22" s="5">
+        <v>0.547</v>
+      </c>
+      <c r="C22" s="5">
+        <v>2.2373000000000003</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="20.25">
+      <c r="A23" s="4">
+        <v>0.3813</v>
+      </c>
+      <c r="B23" s="5">
+        <v>0.403</v>
+      </c>
+      <c r="C23" s="5">
+        <v>1.6296</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="20.25">
+      <c r="A24" s="4">
+        <v>0.0649</v>
+      </c>
+      <c r="B24" s="5">
+        <v>0.107</v>
+      </c>
+      <c r="C24" s="5">
+        <v>2.3883</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="20.25">
+      <c r="A25" s="4">
+        <v>0.3586</v>
+      </c>
+      <c r="B25" s="5">
+        <v>0.7242</v>
+      </c>
+      <c r="C25" s="5">
+        <v>2.4399</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="20.25">
+      <c r="A26" s="4">
+        <v>0.2035</v>
+      </c>
+      <c r="B26" s="5">
+        <v>0.783</v>
+      </c>
+      <c r="C26" s="5">
+        <v>2.5703</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="20.25">
+      <c r="A27" s="4">
+        <v>0.8138</v>
+      </c>
+      <c r="B27" s="5">
+        <v>0.5666</v>
+      </c>
+      <c r="C27" s="5">
+        <v>2.3635</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="20.25">
+      <c r="A28" s="4">
+        <v>0.3934</v>
+      </c>
+      <c r="B28" s="5">
+        <v>0.8113</v>
+      </c>
+      <c r="C28" s="5">
+        <v>1.8007000000000002</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="20.25">
+      <c r="A29" s="4">
+        <v>0.0536</v>
+      </c>
+      <c r="B29" s="5">
+        <v>0.5768</v>
+      </c>
+      <c r="C29" s="5">
+        <v>3.2735999999999996</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="20.25">
+      <c r="A30" s="4">
+        <v>0.3751</v>
+      </c>
+      <c r="B30" s="5">
+        <v>0.944</v>
+      </c>
+      <c r="C30" s="5">
+        <v>1.7206</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
+      <c r="A31" s="4">
+        <v>0.1653</v>
+      </c>
+      <c r="B31" s="5">
+        <v>0.5076</v>
+      </c>
+      <c r="C31" s="5">
+        <v>3.154</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
+      <c r="A32" s="4">
+        <v>0.8492</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.3298</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.9312</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
+      <c r="A33" s="4">
+        <v>0.7384</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0.7672</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1.311</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
+      <c r="A34" s="4">
+        <v>0.4299</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.1582</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1.605</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
+      <c r="A35" s="4">
+        <v>0.2072</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0.2864</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1.6382999999999999</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
+      <c r="A36" s="4">
+        <v>0.3234</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0.6871</v>
+      </c>
+      <c r="C36" s="2">
+        <v>2.7847</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
+      <c r="A37" s="4">
+        <v>0.3752</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0.5121</v>
+      </c>
+      <c r="C37" s="2">
+        <v>2.6119</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
+      <c r="A38" s="4">
+        <v>0.8171</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0.7321</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1.8783</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
+      <c r="A39" s="4">
+        <v>0.5317</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0.7498</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1.5906</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+      <c r="A40" s="4">
+        <v>0.7743</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0.2395</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0.6192</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+      <c r="A41" s="4">
+        <v>0.3346</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0.6629</v>
+      </c>
+      <c r="C41" s="2">
+        <v>2.8536</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+      <c r="A42" s="4">
+        <v>0.5746</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0.8162</v>
+      </c>
+      <c r="C42" s="2">
+        <v>1.0994</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+      <c r="A43" s="4">
+        <v>0.8639</v>
+      </c>
+      <c r="B43" s="2">
+        <v>0.7939</v>
+      </c>
+      <c r="C43" s="2">
+        <v>1.8812000000000002</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+      <c r="A44" s="4">
+        <v>0.1986</v>
+      </c>
+      <c r="B44" s="2">
+        <v>0.4691</v>
+      </c>
+      <c r="C44" s="2">
+        <v>2.8353</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+      <c r="A45" s="4">
+        <v>0.6725</v>
+      </c>
+      <c r="B45" s="2">
+        <v>0.3095</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0.2018</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+      <c r="A46" s="4">
+        <v>0.9018</v>
+      </c>
+      <c r="B46" s="2">
+        <v>0.6876</v>
+      </c>
+      <c r="C46" s="2">
+        <v>2.8333</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+      <c r="A47" s="4">
+        <v>0.4965</v>
+      </c>
+      <c r="B47" s="2">
+        <v>0.8296</v>
+      </c>
+      <c r="C47" s="2">
+        <v>1.2912000000000001</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+      <c r="A48" s="4">
+        <v>0.4128</v>
+      </c>
+      <c r="B48" s="2">
+        <v>0.068</v>
+      </c>
+      <c r="C48" s="2">
+        <v>1.6481999999999999</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+      <c r="A49" s="4">
+        <v>0.2343</v>
+      </c>
+      <c r="B49" s="2">
+        <v>0.6137</v>
+      </c>
+      <c r="C49" s="2">
+        <v>3.3226</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+      <c r="A50" s="4">
+        <v>0.775</v>
+      </c>
+      <c r="B50" s="2">
+        <v>0.8715</v>
+      </c>
+      <c r="C50" s="2">
+        <v>0.9821</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+      <c r="A51" s="4">
+        <v>0.9122</v>
+      </c>
+      <c r="B51" s="2">
+        <v>0.7888</v>
+      </c>
+      <c r="C51" s="2">
+        <v>2.3591</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+      <c r="A52" s="7"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+      <c r="A53" s="7"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+      <c r="A54" s="7"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5">
+      <c r="A55" s="4"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+      <c r="A56" s="7"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="20.25">
+      <c r="A57" s="4"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
